--- a/Training/39276-2021-Conlin.xlsx
+++ b/Training/39276-2021-Conlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glase\SoftwareProjects\espn-fantasy-football\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{705C1BB7-D2B9-49ED-AC45-80160ECD1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042FA030-FC5D-4277-A948-A07DAC138012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1751,7 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8852,7 +8854,7 @@
         <v>50</v>
       </c>
       <c r="E203" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>483</v>
